--- a/data/trans_bre/P9_3-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P9_3-Estudios-trans_bre.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -581,22 +581,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-3,38</t>
+          <t>1,73</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,22</t>
+          <t>1,64</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-11,48%</t>
+          <t>5,98%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,7%</t>
+          <t>5,44%</t>
         </is>
       </c>
     </row>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-11,25; 3,81</t>
+          <t>-12,04; 14,59</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-12,36; 9,6</t>
+          <t>-9,75; 13,97</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-32,36; 15,89</t>
+          <t>-33,02; 65,88</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-31,16; 39,41</t>
+          <t>-26,56; 60,48</t>
         </is>
       </c>
     </row>
@@ -641,22 +641,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-1,87</t>
+          <t>-0,76</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,69</t>
+          <t>0,84</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-3,69%</t>
+          <t>-1,48%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>5,4%</t>
+          <t>1,62%</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-7,08; 4,58</t>
+          <t>-8,8; 8,63</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 10,08</t>
+          <t>-7,46; 9,1</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-13,37; 9,78</t>
+          <t>-15,62; 18,64</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,63; 22,29</t>
+          <t>-13,14; 18,94</t>
         </is>
       </c>
     </row>
@@ -701,22 +701,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-3,92</t>
+          <t>-3,16</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,34</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-5,49%</t>
+          <t>-4,31%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,48%</t>
+          <t>1,54%</t>
         </is>
       </c>
     </row>
@@ -729,29 +729,29 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-10,23; 2,6</t>
+          <t>-12,0; 5,71</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,31; 7,13</t>
+          <t>-6,96; 9,33</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-13,52; 4,04</t>
+          <t>-15,66; 8,22</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,95; 10,72</t>
+          <t>-9,17; 14,32</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -761,22 +761,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-4,25</t>
+          <t>-6,49</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,03</t>
+          <t>-2,73</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-8,03%</t>
+          <t>-12,63%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,06%</t>
+          <t>-5,38%</t>
         </is>
       </c>
     </row>
@@ -789,30 +789,98 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-7,99; -0,43</t>
+          <t>-11,54; -1,42</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,87; 4,48</t>
+          <t>-9,23; 4,01</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-14,58; -0,85</t>
+          <t>-21,03; -2,69</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-8,74; 9,13</t>
+          <t>-16,77; 8,53</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>-4,08</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-0,66</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-7,72%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>-1,24%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-8,24; -0,38</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-4,96; 3,41</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-14,85; -0,62</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-8,92; 6,67</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>

--- a/data/trans_bre/P9_3-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P9_3-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -579,179 +588,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>1,73</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>1,64</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>5,98%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>5,44%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>1.734505465741631</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>1.225964959801307</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>0.05983935185964709</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>0.03939201528804227</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-12,04; 14,59</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-9,75; 13,97</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-33,02; 65,88</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-26,56; 60,48</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-12.03587129672959</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-10.28118103955835</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>-0.3302266014734601</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.2733163904594885</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>14.58546847274277</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>13.80815714241372</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>0.658791925532327</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>0.5823551133807031</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-0,76</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,84</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-1,48%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>1,62%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-8,8; 8,63</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-7,46; 9,1</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-15,62; 18,64</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-13,14; 18,94</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-0.7630327722468189</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>2.596406676930385</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>-0.01479220136287498</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>0.05012383020603959</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-3,16</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>1,09</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-4,31%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>1,54%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-8.800654244614222</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-5.552974681714225</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.1561703242650071</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.09897706862602694</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-12,0; 5,71</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-6,96; 9,33</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-15,66; 8,22</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-9,17; 14,32</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>8.626230754825412</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>10.79837674693193</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.1864211263886884</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>0.2324902116090075</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -759,132 +716,139 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-6,49</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-2,73</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-12,63%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-5,38%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-3.158070416701242</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.8571760132565664</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>-0.04311828801952741</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>0.01208587807302956</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-11,54; -1,42</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-9,23; 4,01</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-21,03; -2,69</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-16,77; 8,53</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-11.99504615781826</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-7.508594597594406</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>-0.1566154336940123</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-0.09750742519933747</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>5.713992262201508</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>9.233922592567181</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>0.0822247628507955</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>0.1423398770864946</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-4,08</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-0,66</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-7,72%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-1,24%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-8,24; -0,38</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-4,96; 3,41</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-14,85; -0,62</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-8,92; 6,67</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>-1.024469497871683</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.9078321429776492</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>-0.01857680863596146</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>0.01638871504727977</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-7.628352861521272</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-5.066700026349757</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.1289350515845528</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.08686090822651095</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>4.718016284169614</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>6.50416836852648</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.09072816784146616</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.126944328320121</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
